--- a/dataset/ccv/pizzass_list.xlsx
+++ b/dataset/ccv/pizzass_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iholova/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iholova/Desktop/studying/pizza-api/dataset/ccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124FC68-7469-4440-AB61-EC48D56ABEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7092C66-9AD7-7148-A838-25928480E0CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pronto_pizza" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="328">
   <si>
     <t>name</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>тісто, соус, сир, моцарела, печериці свіжі, прошуто, зелень, пармезан</t>
+  </si>
+  <si>
+    <t>139, 197</t>
+  </si>
+  <si>
+    <t>127, 188</t>
   </si>
 </sst>
 </file>
@@ -1627,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1729,8 +1735,8 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5">
-        <v>157.22900000000001</v>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
@@ -1750,8 +1756,8 @@
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5">
-        <v>139.197</v>
+      <c r="C6" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
@@ -1771,8 +1777,8 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5">
-        <v>127.188</v>
+      <c r="C7" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
@@ -4600,7 +4606,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
